--- a/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>DPSI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,151 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
-        <v>42643</v>
-      </c>
-      <c r="H7" s="2">
-        <v>42551</v>
-      </c>
-      <c r="I7" s="2">
-        <v>42460</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E8" s="3">
         <v>16100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J8" s="3">
         <v>8700</v>
       </c>
-      <c r="G8" s="3">
-        <v>22400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E9" s="3">
         <v>12200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J9" s="3">
         <v>6900</v>
       </c>
-      <c r="G9" s="3">
-        <v>17900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E10" s="3">
         <v>3900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J10" s="3">
         <v>1800</v>
       </c>
-      <c r="G10" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +821,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +851,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,17 +883,20 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
@@ -895,40 +912,46 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +960,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E17" s="3">
         <v>14500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J17" s="3">
         <v>8500</v>
       </c>
-      <c r="G17" s="3">
-        <v>21800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>800</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1038,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1023,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1035,39 +1066,45 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>1900</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
+      <c r="F21" s="3">
+        <v>1300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
+      <c r="H21" s="3">
+        <v>1000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1075,86 +1112,95 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>500</v>
+      </c>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
-        <v>400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1228,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>400</v>
+      </c>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>300</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>400</v>
+      </c>
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
-        <v>300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1324,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1280,26 +1338,29 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>800</v>
       </c>
-      <c r="G29" s="3">
-        <v>500</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>500</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1388,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1420,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1371,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1383,39 +1450,45 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>400</v>
+      </c>
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
-        <v>800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1516,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>400</v>
+      </c>
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
-        <v>800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
-        <v>42643</v>
-      </c>
-      <c r="H38" s="2">
-        <v>42551</v>
-      </c>
-      <c r="I38" s="2">
-        <v>42460</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1601,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,37 +1615,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,124 +1677,139 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E43" s="3">
         <v>10600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3">
         <v>5600</v>
       </c>
-      <c r="G43" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
+        <v>900</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3">
-        <v>300</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
         <v>2000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2300</v>
       </c>
       <c r="K45" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E46" s="3">
         <v>15900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3">
         <v>9300</v>
       </c>
-      <c r="G46" s="3">
-        <v>9800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,51 +1837,57 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="3">
         <v>1300</v>
       </c>
       <c r="F48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>700</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E49" s="3">
         <v>12500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12800</v>
       </c>
-      <c r="F49" s="3">
-        <v>5300</v>
-      </c>
       <c r="G49" s="3">
-        <v>5300</v>
+        <v>8900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -1793,8 +1901,11 @@
       <c r="K49" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1933,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,37 +1965,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E52" s="3">
         <v>3900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
         <v>800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>800</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1000</v>
       </c>
       <c r="K52" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2029,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E54" s="3">
         <v>33500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>39400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
+        <v>28400</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3">
         <v>15600</v>
       </c>
-      <c r="G54" s="3">
-        <v>16000</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2077,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,37 +2091,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E57" s="3">
         <v>8200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3">
         <v>5300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3">
-        <v>7000</v>
       </c>
       <c r="K57" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2002,86 +2133,95 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E59" s="3">
         <v>7800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E60" s="3">
         <v>16000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3">
         <v>12400</v>
       </c>
-      <c r="G60" s="3">
-        <v>12800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2089,57 +2229,63 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
         <v>1400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
+        <v>700</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E62" s="3">
         <v>4200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2313,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2345,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2377,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E66" s="3">
         <v>20300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>17100</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3">
         <v>13800</v>
       </c>
-      <c r="G66" s="3">
-        <v>15100</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2425,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2455,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2487,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2349,13 +2514,16 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>14100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +2551,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
         <v>-33300</v>
       </c>
-      <c r="G72" s="3">
-        <v>-34200</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-35600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2615,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2647,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,37 +2679,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E76" s="3">
         <v>13200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3">
         <v>1700</v>
       </c>
-      <c r="G76" s="3">
-        <v>900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-18500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2743,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
-        <v>42643</v>
-      </c>
-      <c r="H80" s="2">
-        <v>42551</v>
-      </c>
-      <c r="I80" s="2">
-        <v>42460</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>400</v>
+      </c>
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
-        <v>800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +2828,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
+      <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>300</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
+      <c r="H83" s="3">
+        <v>200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>-400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2890,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2922,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2954,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2986,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3018,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>1300</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
+      <c r="F89" s="3">
+        <v>800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
+      <c r="H89" s="3">
+        <v>-1100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3066,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>-100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3128,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3160,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="F94" s="3">
+        <v>-3100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
+      <c r="H94" s="3">
+        <v>-600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3208,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3238,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3270,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3302,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,91 +3334,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
+      <c r="F100" s="3">
+        <v>700</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
+      <c r="H100" s="3">
+        <v>1900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
+      <c r="F102" s="3">
+        <v>-1700</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
+      <c r="H102" s="3">
+        <v>200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>DPSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,164 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E8" s="3">
         <v>15200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E9" s="3">
         <v>11700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E10" s="3">
         <v>3500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3000</v>
       </c>
       <c r="I10" s="3">
         <v>3000</v>
       </c>
       <c r="J10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,8 +835,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +868,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,8 +903,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,11 +915,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -915,11 +935,14 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -944,14 +967,17 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -961,72 +987,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E17" s="3">
         <v>15100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>900</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>800</v>
       </c>
       <c r="I18" s="3">
         <v>800</v>
       </c>
       <c r="J18" s="3">
+        <v>800</v>
+      </c>
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,8 +1072,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1054,11 +1088,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1069,42 +1103,48 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1124,83 +1164,92 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,72 +1280,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,8 +1385,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1350,17 +1411,20 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>800</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,8 +1455,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,8 +1490,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1438,11 +1508,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1453,42 +1523,48 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1519,77 +1595,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1602,8 +1687,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1616,40 +1702,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1680,136 +1770,151 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E43" s="3">
         <v>11200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8800</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>5600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>900</v>
       </c>
       <c r="G44" s="3">
         <v>900</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
+      <c r="H44" s="3">
+        <v>900</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>2000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>2300</v>
       </c>
       <c r="L45" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E46" s="3">
         <v>17600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15600</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="3">
         <v>9300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1840,8 +1945,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1849,54 +1957,57 @@
         <v>1200</v>
       </c>
       <c r="E48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F48" s="3">
         <v>1300</v>
       </c>
       <c r="G48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E49" s="3">
         <v>12200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8900</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="3">
-        <v>5300</v>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>5300</v>
@@ -1904,8 +2015,11 @@
       <c r="L49" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1936,8 +2050,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,40 +2085,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
         <v>3700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1000</v>
       </c>
       <c r="L52" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,40 +2155,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E54" s="3">
         <v>34800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
         <v>15600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,8 +2207,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2092,40 +2222,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E57" s="3">
         <v>8100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>5300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>7000</v>
       </c>
       <c r="L57" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2136,92 +2270,101 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="H58" s="3">
+        <v>1200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>2900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E59" s="3">
         <v>9700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E60" s="3">
         <v>17800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
         <v>12400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2232,60 +2375,66 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
+        <v>200</v>
+      </c>
+      <c r="G61" s="3">
         <v>1400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E62" s="3">
         <v>3500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +2465,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,8 +2500,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,40 +2535,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E66" s="3">
         <v>21400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
         <v>13800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2426,8 +2587,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2458,8 +2620,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2490,8 +2655,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2517,13 +2685,16 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>14100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2554,40 +2725,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-26400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>-33300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2618,8 +2795,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2650,8 +2830,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2682,40 +2865,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E76" s="3">
         <v>13400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
         <v>1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-18500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2746,77 +2935,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,40 +3027,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>-400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2893,8 +3095,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2925,8 +3130,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2957,8 +3165,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2989,8 +3200,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3021,40 +3235,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3067,8 +3287,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3079,28 +3300,31 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3131,8 +3355,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3163,8 +3390,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3172,31 +3402,34 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3209,8 +3442,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3241,8 +3475,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3273,8 +3510,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3305,8 +3545,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3337,8 +3580,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3346,31 +3592,34 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3396,41 +3645,47 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>DPSI</t>
   </si>
@@ -1723,11 +1723,11 @@
       <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
+      <c r="I41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2600</v>
       </c>
       <c r="K41" s="3">
         <v>1200</v>
@@ -1793,11 +1793,11 @@
       <c r="H43" s="3">
         <v>8800</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
+      <c r="I43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4600</v>
       </c>
       <c r="K43" s="3">
         <v>5600</v>
@@ -1828,11 +1828,11 @@
       <c r="H44" s="3">
         <v>900</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+      <c r="I44" s="3">
+        <v>400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>400</v>
@@ -1863,11 +1863,11 @@
       <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+      <c r="I45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2200</v>
       </c>
       <c r="K45" s="3">
         <v>2000</v>
@@ -1898,11 +1898,11 @@
       <c r="H46" s="3">
         <v>15600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
+      <c r="I46" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9800</v>
       </c>
       <c r="K46" s="3">
         <v>9300</v>
@@ -1968,11 +1968,11 @@
       <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
+      <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2003,11 +2003,11 @@
       <c r="H49" s="3">
         <v>8900</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="I49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5300</v>
       </c>
       <c r="K49" s="3">
         <v>5300</v>
@@ -2108,11 +2108,11 @@
       <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+      <c r="I52" s="3">
+        <v>800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>800</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
@@ -2178,11 +2178,11 @@
       <c r="H54" s="3">
         <v>28400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
+      <c r="I54" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>16000</v>
       </c>
       <c r="K54" s="3">
         <v>15600</v>
@@ -2243,11 +2243,11 @@
       <c r="H57" s="3">
         <v>7000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
+      <c r="I57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5200</v>
       </c>
       <c r="K57" s="3">
         <v>5300</v>
@@ -2278,11 +2278,11 @@
       <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="I58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3400</v>
       </c>
       <c r="K58" s="3">
         <v>2900</v>
@@ -2313,11 +2313,11 @@
       <c r="H59" s="3">
         <v>5900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
+      <c r="I59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4300</v>
       </c>
       <c r="K59" s="3">
         <v>4200</v>
@@ -2348,11 +2348,11 @@
       <c r="H60" s="3">
         <v>14000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
+      <c r="I60" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>12800</v>
       </c>
       <c r="K60" s="3">
         <v>12400</v>
@@ -2384,10 +2384,10 @@
         <v>700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="K61" s="3">
         <v>400</v>
@@ -2418,11 +2418,11 @@
       <c r="H62" s="3">
         <v>2400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1100</v>
       </c>
       <c r="K62" s="3">
         <v>1100</v>
@@ -2558,11 +2558,11 @@
       <c r="H66" s="3">
         <v>17100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
+      <c r="I66" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>15100</v>
       </c>
       <c r="K66" s="3">
         <v>13800</v>
@@ -2748,11 +2748,11 @@
       <c r="H72" s="3">
         <v>-27000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
+      <c r="I72" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-34200</v>
       </c>
       <c r="K72" s="3">
         <v>-33300</v>
@@ -2888,11 +2888,11 @@
       <c r="H76" s="3">
         <v>11300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
+      <c r="I76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>900</v>
       </c>
       <c r="K76" s="3">
         <v>1700</v>

--- a/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>DPSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,164 +665,176 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E8" s="3">
         <v>18200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E9" s="3">
         <v>14000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E10" s="3">
         <v>4200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3000</v>
       </c>
       <c r="J10" s="3">
         <v>3000</v>
       </c>
       <c r="K10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L10" s="3">
         <v>1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +848,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -871,8 +884,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,8 +922,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,11 +937,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
@@ -938,11 +957,14 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -970,14 +992,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,78 +1013,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E17" s="3">
         <v>17300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>800</v>
       </c>
       <c r="J18" s="3">
         <v>800</v>
       </c>
       <c r="K18" s="3">
+        <v>800</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,8 +1105,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1091,11 +1124,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1106,45 +1139,51 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
+      <c r="L21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1158,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1167,89 +1206,98 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,78 +1331,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1445,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1414,17 +1474,20 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>800</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1521,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,8 +1559,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1511,11 +1580,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1526,45 +1595,51 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,83 +1673,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1772,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,8 +1788,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1712,34 +1798,37 @@
         <v>2600</v>
       </c>
       <c r="E41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1773,148 +1862,163 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E43" s="3">
         <v>11900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>900</v>
       </c>
       <c r="H44" s="3">
         <v>900</v>
       </c>
       <c r="I44" s="3">
+        <v>900</v>
+      </c>
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>2300</v>
       </c>
       <c r="M45" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E46" s="3">
         <v>18200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1948,8 +2052,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1960,51 +2067,54 @@
         <v>1200</v>
       </c>
       <c r="F48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G48" s="3">
         <v>1300</v>
       </c>
       <c r="H48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E49" s="3">
         <v>12000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>5300</v>
       </c>
       <c r="J49" s="3">
         <v>5300</v>
@@ -2018,8 +2128,11 @@
       <c r="M49" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2166,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,8 +2204,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2097,19 +2216,19 @@
         <v>3500</v>
       </c>
       <c r="E52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F52" s="3">
         <v>3700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>800</v>
       </c>
       <c r="J52" s="3">
         <v>800</v>
@@ -2118,13 +2237,16 @@
         <v>800</v>
       </c>
       <c r="L52" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M52" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,43 +2280,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E54" s="3">
         <v>34900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2336,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,43 +2352,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E57" s="3">
         <v>9600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>7000</v>
       </c>
       <c r="M57" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2273,103 +2406,112 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>1200</v>
       </c>
       <c r="I58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E59" s="3">
         <v>7600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E60" s="3">
         <v>17300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
@@ -2378,48 +2520,51 @@
         <v>200</v>
       </c>
       <c r="G61" s="3">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3">
         <v>1400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1100</v>
       </c>
       <c r="J62" s="3">
         <v>1100</v>
@@ -2428,13 +2573,16 @@
         <v>1100</v>
       </c>
       <c r="L62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2616,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2654,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,43 +2692,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E66" s="3">
         <v>20800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2748,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2784,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2822,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2688,13 +2855,16 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>14100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,43 +2898,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-26400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +2974,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3012,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,43 +3050,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E76" s="3">
         <v>14100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-18500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,83 +3126,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,43 +3225,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
       </c>
       <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>-400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3299,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3337,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3375,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3413,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,43 +3451,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,8 +3507,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3303,28 +3523,31 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3581,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,8 +3619,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3405,31 +3634,34 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,8 +3675,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3478,8 +3711,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3749,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +3787,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,8 +3825,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3595,31 +3840,34 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3648,44 +3896,50 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>DPSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,176 +665,202 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F8" s="3">
         <v>16500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>18200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>15200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>16100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>18300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>11100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>12100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F9" s="3">
         <v>12700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>14000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>11700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>12200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>13800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>9000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>9100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>6900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F10" s="3">
         <v>3800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>4200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>3900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>4500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +875,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -887,8 +915,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,8 +959,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,14 +980,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
@@ -960,11 +1000,17 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -995,14 +1041,20 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1014,84 +1066,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F17" s="3">
         <v>17400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>17300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>15100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>14500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>17400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>11300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>11100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,8 +1172,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1127,14 +1195,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1142,48 +1210,60 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1200,104 +1280,122 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-100</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1334,84 +1432,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>200</v>
       </c>
       <c r="J26" s="3">
         <v>600</v>
       </c>
       <c r="K26" s="3">
+        <v>200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>600</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>200</v>
       </c>
       <c r="J27" s="3">
         <v>600</v>
       </c>
       <c r="K27" s="3">
+        <v>200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>600</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,8 +1564,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1477,17 +1599,23 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>800</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1652,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1562,8 +1696,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1583,14 +1723,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1598,48 +1738,60 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>200</v>
       </c>
       <c r="J33" s="3">
         <v>600</v>
       </c>
       <c r="K33" s="3">
+        <v>200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>600</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1676,89 +1828,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>200</v>
       </c>
       <c r="J35" s="3">
         <v>600</v>
       </c>
       <c r="K35" s="3">
+        <v>200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>600</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1773,8 +1943,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1789,46 +1961,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2600</v>
       </c>
       <c r="L41" s="3">
         <v>1200</v>
       </c>
       <c r="M41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1865,72 +2045,84 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F43" s="3">
         <v>12300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>11900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>11200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>10600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>16400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>8800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K43" s="3">
-        <v>4600</v>
       </c>
       <c r="L43" s="3">
         <v>5600</v>
       </c>
       <c r="M43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="O43" s="3">
         <v>4800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F44" s="3">
         <v>2100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>300</v>
       </c>
       <c r="L44" s="3">
         <v>400</v>
@@ -1939,15 +2131,21 @@
         <v>300</v>
       </c>
       <c r="N44" s="3">
+        <v>400</v>
+      </c>
+      <c r="O44" s="3">
+        <v>300</v>
+      </c>
+      <c r="P44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E45" s="3">
         <v>2500</v>
@@ -1959,66 +2157,78 @@
         <v>2500</v>
       </c>
       <c r="H45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>2200</v>
       </c>
       <c r="L45" s="3">
         <v>2000</v>
       </c>
       <c r="M45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O45" s="3">
         <v>2300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>28700</v>
+      </c>
+      <c r="F46" s="3">
         <v>19300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>18200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>17600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>15900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>21100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>15600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>9300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>9800</v>
       </c>
       <c r="L46" s="3">
         <v>9300</v>
       </c>
       <c r="M46" s="3">
+        <v>9800</v>
+      </c>
+      <c r="N46" s="3">
+        <v>9300</v>
+      </c>
+      <c r="O46" s="3">
         <v>8200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2055,34 +2265,40 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>4600</v>
       </c>
       <c r="E48" s="3">
-        <v>1200</v>
+        <v>4300</v>
       </c>
       <c r="F48" s="3">
         <v>1200</v>
       </c>
       <c r="G48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2091,36 +2307,42 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F49" s="3">
         <v>11700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>12000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>12200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>12500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>12800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>8900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>5300</v>
       </c>
       <c r="L49" s="3">
         <v>5300</v>
@@ -2131,8 +2353,14 @@
       <c r="N49" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P49" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2169,8 +2397,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,8 +2441,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2216,37 +2456,43 @@
         <v>3500</v>
       </c>
       <c r="E52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F52" s="3">
         <v>3500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H52" s="3">
         <v>3700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>800</v>
       </c>
       <c r="L52" s="3">
         <v>800</v>
       </c>
       <c r="M52" s="3">
+        <v>800</v>
+      </c>
+      <c r="N52" s="3">
+        <v>800</v>
+      </c>
+      <c r="O52" s="3">
         <v>1000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2283,46 +2529,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>53100</v>
+      </c>
+      <c r="F54" s="3">
         <v>35700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>34900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>34800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>33500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>39400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>28400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>15600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>16000</v>
       </c>
       <c r="L54" s="3">
         <v>15600</v>
       </c>
       <c r="M54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="N54" s="3">
+        <v>15600</v>
+      </c>
+      <c r="O54" s="3">
         <v>14600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2337,8 +2595,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2353,46 +2613,54 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F57" s="3">
         <v>10300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>9600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>8200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>12900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>5200</v>
       </c>
       <c r="L57" s="3">
         <v>5300</v>
       </c>
       <c r="M57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O57" s="3">
         <v>7000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2409,104 +2677,122 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>3400</v>
       </c>
       <c r="L58" s="3">
         <v>2900</v>
       </c>
       <c r="M58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F59" s="3">
         <v>8100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>4300</v>
       </c>
       <c r="L59" s="3">
         <v>4200</v>
       </c>
       <c r="M59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O59" s="3">
         <v>6900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>33100</v>
+      </c>
+      <c r="F60" s="3">
         <v>18400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>17300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>17800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>16000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>21800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>14000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>12400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>12800</v>
       </c>
       <c r="L60" s="3">
         <v>12400</v>
       </c>
       <c r="M60" s="3">
+        <v>12800</v>
+      </c>
+      <c r="N60" s="3">
+        <v>12400</v>
+      </c>
+      <c r="O60" s="3">
         <v>17400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2514,75 +2800,87 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
       </c>
       <c r="H61" s="3">
+        <v>200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>200</v>
+      </c>
+      <c r="J61" s="3">
         <v>1400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>400</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1200</v>
       </c>
       <c r="L61" s="3">
         <v>400</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1100</v>
       </c>
       <c r="L62" s="3">
         <v>1100</v>
       </c>
       <c r="M62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +2917,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2657,8 +2961,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2695,46 +3005,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>39200</v>
+      </c>
+      <c r="F66" s="3">
         <v>21500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>20800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>21400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>20300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>27500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>17100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>13800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>15100</v>
       </c>
       <c r="L66" s="3">
         <v>13800</v>
       </c>
       <c r="M66" s="3">
+        <v>15100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>13800</v>
+      </c>
+      <c r="O66" s="3">
         <v>19100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2749,8 +3071,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2787,8 +3111,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2825,8 +3155,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2858,13 +3194,19 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>14100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2901,46 +3243,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-25000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-24900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-25000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-26400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-33300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-34200</v>
       </c>
       <c r="L72" s="3">
         <v>-33300</v>
       </c>
       <c r="M72" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-35600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2977,8 +3331,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3015,8 +3375,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3053,46 +3419,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F76" s="3">
         <v>14300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>13400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>13200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>11300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>900</v>
       </c>
       <c r="L76" s="3">
         <v>1700</v>
       </c>
       <c r="M76" s="3">
+        <v>900</v>
+      </c>
+      <c r="N76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O76" s="3">
         <v>-18500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,89 +3507,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>200</v>
       </c>
       <c r="J81" s="3">
         <v>600</v>
       </c>
       <c r="K81" s="3">
+        <v>200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>600</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3226,46 +3622,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>-400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3302,8 +3706,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3340,8 +3750,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3378,8 +3794,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3416,8 +3838,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3454,46 +3882,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3508,16 +3948,18 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -3526,28 +3968,34 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3584,8 +4032,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3622,46 +4076,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>-4900</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3676,8 +4142,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3714,8 +4182,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3752,8 +4226,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3790,8 +4270,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3828,13 +4314,19 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3843,31 +4335,37 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3899,47 +4397,59 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E102" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>DPSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,202 +665,215 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E8" s="3">
         <v>27500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="3">
         <v>21200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E10" s="3">
         <v>6300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3000</v>
       </c>
       <c r="M10" s="3">
         <v>3000</v>
       </c>
       <c r="N10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,8 +890,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,8 +935,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -965,8 +982,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,11 +1006,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1006,11 +1026,14 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1047,14 +1070,17 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1068,96 +1094,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E17" s="3">
         <v>25500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>800</v>
       </c>
       <c r="M18" s="3">
         <v>800</v>
       </c>
       <c r="N18" s="3">
+        <v>800</v>
+      </c>
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1174,8 +1207,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1201,11 +1235,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1216,54 +1250,60 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
+      <c r="O21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1286,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1295,107 +1335,116 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1438,96 +1487,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1570,8 +1628,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1605,17 +1666,20 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>800</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1658,8 +1722,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1702,8 +1769,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1729,11 +1799,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1744,54 +1814,60 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1834,101 +1910,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1945,8 +2030,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1963,52 +2049,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E41" s="3">
         <v>8500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2600</v>
       </c>
       <c r="G41" s="3">
         <v>2600</v>
       </c>
       <c r="H41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2051,184 +2141,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E43" s="3">
         <v>18700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>900</v>
       </c>
       <c r="K44" s="3">
         <v>900</v>
       </c>
       <c r="L44" s="3">
+        <v>900</v>
+      </c>
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>2300</v>
       </c>
       <c r="P45" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E46" s="3">
         <v>30400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2271,19 +2376,22 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1200</v>
       </c>
       <c r="G48" s="3">
         <v>1200</v>
@@ -2292,60 +2400,63 @@
         <v>1200</v>
       </c>
       <c r="I48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J48" s="3">
         <v>1300</v>
       </c>
       <c r="K48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E49" s="3">
         <v>15200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>5300</v>
       </c>
       <c r="M49" s="3">
         <v>5300</v>
@@ -2359,8 +2470,11 @@
       <c r="P49" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2403,8 +2517,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2447,37 +2564,40 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E52" s="3">
         <v>3500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3500</v>
       </c>
       <c r="G52" s="3">
         <v>3500</v>
       </c>
       <c r="H52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I52" s="3">
         <v>3700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>800</v>
       </c>
       <c r="M52" s="3">
         <v>800</v>
@@ -2486,13 +2606,16 @@
         <v>800</v>
       </c>
       <c r="O52" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="P52" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2535,52 +2658,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E54" s="3">
         <v>53700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>53100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2597,8 +2726,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2615,52 +2745,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E57" s="3">
         <v>15300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>7000</v>
       </c>
       <c r="P57" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2683,116 +2817,125 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>1200</v>
       </c>
       <c r="L58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M58" s="3">
         <v>2900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E59" s="3">
         <v>17300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E60" s="3">
         <v>32600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2806,7 +2949,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -2815,57 +2958,60 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
+        <v>200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E62" s="3">
         <v>6200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1100</v>
       </c>
       <c r="M62" s="3">
         <v>1100</v>
@@ -2874,13 +3020,16 @@
         <v>1100</v>
       </c>
       <c r="O62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P62" s="3">
         <v>1600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2923,8 +3072,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2967,8 +3119,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3011,52 +3166,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E66" s="3">
         <v>39000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3073,8 +3234,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3117,8 +3279,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3161,8 +3326,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,13 +3368,16 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>14100</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3249,52 +3420,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-26400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-33300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-34200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-33300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3337,8 +3514,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3381,8 +3561,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3425,52 +3608,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-18500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3513,101 +3702,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3624,52 +3822,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
       </c>
       <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3">
         <v>-400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3712,8 +3914,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3756,8 +3961,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3800,8 +4008,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3844,8 +4055,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3888,52 +4102,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3950,19 +4170,20 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -3974,28 +4195,31 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-100</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4038,8 +4262,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4082,19 +4309,22 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4900</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -4103,31 +4333,34 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4144,8 +4377,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4188,8 +4422,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4232,8 +4469,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4276,8 +4516,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4320,17 +4563,20 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4341,31 +4587,34 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4403,53 +4652,59 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6800</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>DPSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,215 +665,227 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E8" s="3">
         <v>25700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E9" s="3">
         <v>20000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E10" s="3">
         <v>5700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3000</v>
       </c>
       <c r="N10" s="3">
         <v>3000</v>
       </c>
       <c r="O10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P10" s="3">
         <v>1800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,8 +903,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -938,8 +951,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -985,8 +1001,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,11 +1028,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1029,11 +1048,14 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,14 +1095,17 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,102 +1120,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E17" s="3">
         <v>24200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>800</v>
       </c>
       <c r="N18" s="3">
         <v>800</v>
       </c>
       <c r="O18" s="3">
+        <v>800</v>
+      </c>
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1208,8 +1240,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1238,11 +1271,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1253,57 +1286,63 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
+      <c r="P21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1329,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1338,113 +1377,122 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1490,102 +1538,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1631,8 +1688,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1669,17 +1729,20 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>800</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1725,8 +1788,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1772,8 +1838,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1802,11 +1871,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1817,57 +1886,63 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1913,107 +1988,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2031,8 +2115,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2050,55 +2135,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E41" s="3">
         <v>9400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2600</v>
       </c>
       <c r="H41" s="3">
         <v>2600</v>
       </c>
       <c r="I41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2144,196 +2233,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E43" s="3">
         <v>14500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>900</v>
       </c>
       <c r="L44" s="3">
         <v>900</v>
       </c>
       <c r="M44" s="3">
+        <v>900</v>
+      </c>
+      <c r="N44" s="3">
         <v>400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
-      </c>
-      <c r="P45" s="3">
-        <v>2300</v>
       </c>
       <c r="Q45" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E46" s="3">
         <v>28000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2379,8 +2483,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2388,13 +2495,13 @@
         <v>4500</v>
       </c>
       <c r="E48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F48" s="3">
         <v>4600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1200</v>
       </c>
       <c r="H48" s="3">
         <v>1200</v>
@@ -2403,63 +2510,66 @@
         <v>1200</v>
       </c>
       <c r="J48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K48" s="3">
         <v>1300</v>
       </c>
       <c r="L48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>100</v>
-      </c>
-      <c r="P48" s="3">
-        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E49" s="3">
         <v>14700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>5300</v>
       </c>
       <c r="N49" s="3">
         <v>5300</v>
@@ -2473,8 +2583,11 @@
       <c r="Q49" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2520,8 +2633,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2567,40 +2683,43 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3500</v>
       </c>
       <c r="H52" s="3">
         <v>3500</v>
       </c>
       <c r="I52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J52" s="3">
         <v>3700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>800</v>
       </c>
       <c r="N52" s="3">
         <v>800</v>
@@ -2609,13 +2728,16 @@
         <v>800</v>
       </c>
       <c r="P52" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q52" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2661,55 +2783,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E54" s="3">
         <v>51100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>53700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>53100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2727,8 +2855,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2746,55 +2875,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E57" s="3">
         <v>18000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>7000</v>
       </c>
       <c r="Q57" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2820,122 +2953,131 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>1200</v>
       </c>
       <c r="M58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N58" s="3">
         <v>2900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E59" s="3">
         <v>11200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E60" s="3">
         <v>29200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>32600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2952,7 +3094,7 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
@@ -2961,60 +3103,63 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
+        <v>200</v>
+      </c>
+      <c r="L61" s="3">
         <v>1400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E62" s="3">
         <v>5700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2400</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1100</v>
       </c>
       <c r="N62" s="3">
         <v>1100</v>
@@ -3023,13 +3168,16 @@
         <v>1100</v>
       </c>
       <c r="P62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3075,8 +3223,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,8 +3273,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3169,55 +3323,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E66" s="3">
         <v>35100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3235,8 +3395,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3282,8 +3443,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3329,8 +3493,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3371,13 +3538,16 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>14100</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3423,55 +3593,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-25000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-24900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-25000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-26400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-27000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-33300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-34200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-33300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3517,8 +3693,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3564,8 +3743,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3611,55 +3793,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E76" s="3">
         <v>16000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3705,107 +3893,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3823,55 +4020,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
       </c>
       <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>-400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3917,8 +4118,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3964,8 +4168,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4011,8 +4218,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4058,8 +4268,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4105,55 +4318,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4171,8 +4390,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4180,13 +4400,13 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -4198,28 +4418,31 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-100</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4265,8 +4488,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4312,8 +4538,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4321,13 +4550,13 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4900</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -4336,31 +4565,34 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4378,8 +4610,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4425,8 +4658,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4472,8 +4708,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4519,8 +4758,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4566,20 +4808,23 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4590,31 +4835,34 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4655,56 +4903,62 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6800</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>DPSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,227 +665,253 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F8" s="3">
         <v>24500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>25700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>27500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>19700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>16500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>18200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>15200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>16100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>18300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>11100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>12100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>11900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>8700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>7300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F9" s="3">
         <v>18100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>20000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>21200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>15000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>12700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>14000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>12200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>13800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>9000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>9100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>8900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>6900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>5600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F10" s="3">
         <v>6400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>6300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -904,8 +930,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -954,8 +982,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,16 +1038,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1031,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1051,11 +1091,17 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,14 +1144,20 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1121,108 +1173,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>25900</v>
+      </c>
+      <c r="F17" s="3">
         <v>23800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>24200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>25500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>19500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>17400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>17300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>14500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>17400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>11300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>11100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>7000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1241,8 +1307,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1274,14 +1342,14 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1289,65 +1357,77 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1000</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1371,78 +1451,90 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1450,49 +1542,55 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-100</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1541,108 +1639,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>900</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>600</v>
       </c>
       <c r="O26" s="3">
+        <v>200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>900</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>600</v>
       </c>
       <c r="O27" s="3">
+        <v>200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1691,31 +1807,37 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1732,17 +1854,23 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>800</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1791,8 +1919,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1841,8 +1975,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1874,14 +2014,14 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1889,60 +2029,72 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>900</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>200</v>
       </c>
       <c r="N33" s="3">
         <v>600</v>
       </c>
       <c r="O33" s="3">
+        <v>200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1991,113 +2143,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>900</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>200</v>
       </c>
       <c r="N35" s="3">
         <v>600</v>
       </c>
       <c r="O35" s="3">
+        <v>200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2116,8 +2286,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2136,58 +2308,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F41" s="3">
         <v>7600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>9400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3700</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>2600</v>
       </c>
       <c r="P41" s="3">
         <v>1200</v>
       </c>
       <c r="Q41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2236,96 +2416,108 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F43" s="3">
         <v>17100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>14500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>18700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>15800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>12300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>11900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>11200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>10600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>16400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>8800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>5600</v>
-      </c>
-      <c r="O43" s="3">
-        <v>4600</v>
       </c>
       <c r="P43" s="3">
         <v>5600</v>
       </c>
       <c r="Q43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="R43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="S43" s="3">
         <v>4800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F44" s="3">
         <v>4400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>900</v>
-      </c>
-      <c r="N44" s="3">
-        <v>400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>300</v>
       </c>
       <c r="P44" s="3">
         <v>400</v>
@@ -2334,27 +2526,33 @@
         <v>300</v>
       </c>
       <c r="R44" s="3">
+        <v>400</v>
+      </c>
+      <c r="S44" s="3">
+        <v>300</v>
+      </c>
+      <c r="T44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2300</v>
       </c>
       <c r="I45" s="3">
         <v>2500</v>
@@ -2366,78 +2564,90 @@
         <v>2500</v>
       </c>
       <c r="L45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>2200</v>
       </c>
       <c r="P45" s="3">
         <v>2000</v>
       </c>
       <c r="Q45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S45" s="3">
         <v>2300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>53500</v>
+      </c>
+      <c r="F46" s="3">
         <v>32300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>28000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>30400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>28700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>19300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>18200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>17600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>15900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>21100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>15600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>9300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>9800</v>
       </c>
       <c r="P46" s="3">
         <v>9300</v>
       </c>
       <c r="Q46" s="3">
+        <v>9800</v>
+      </c>
+      <c r="R46" s="3">
+        <v>9300</v>
+      </c>
+      <c r="S46" s="3">
         <v>8200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2486,46 +2696,52 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1200</v>
       </c>
       <c r="J48" s="3">
         <v>1200</v>
       </c>
       <c r="K48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>100</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2534,48 +2750,54 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F49" s="3">
         <v>15000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>14700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>15200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>15800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>11700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>12000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>12800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>8900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>5300</v>
-      </c>
-      <c r="O49" s="3">
-        <v>5300</v>
       </c>
       <c r="P49" s="3">
         <v>5300</v>
@@ -2586,8 +2808,14 @@
       <c r="R49" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="T49" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2636,8 +2864,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2686,58 +2920,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F52" s="3">
         <v>3800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>4400</v>
       </c>
       <c r="H52" s="3">
         <v>3500</v>
       </c>
       <c r="I52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J52" s="3">
         <v>3500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L52" s="3">
         <v>3700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>800</v>
-      </c>
-      <c r="O52" s="3">
-        <v>800</v>
       </c>
       <c r="P52" s="3">
         <v>800</v>
       </c>
       <c r="Q52" s="3">
+        <v>800</v>
+      </c>
+      <c r="R52" s="3">
+        <v>800</v>
+      </c>
+      <c r="S52" s="3">
         <v>1000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2786,58 +3032,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>76500</v>
+      </c>
+      <c r="F54" s="3">
         <v>55600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>51100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>53700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>53100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>35700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>34900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>34800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>33500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>39400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>28400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>15600</v>
-      </c>
-      <c r="O54" s="3">
-        <v>16000</v>
       </c>
       <c r="P54" s="3">
         <v>15600</v>
       </c>
       <c r="Q54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="R54" s="3">
+        <v>15600</v>
+      </c>
+      <c r="S54" s="3">
         <v>14600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2856,8 +3114,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2876,66 +3136,74 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F57" s="3">
         <v>19800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>18000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>15300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>9400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>10300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>9600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>12900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>5300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>5200</v>
       </c>
       <c r="P57" s="3">
         <v>5300</v>
       </c>
       <c r="Q57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S57" s="3">
         <v>7000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2956,136 +3224,154 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O58" s="3">
-        <v>3400</v>
       </c>
       <c r="P58" s="3">
         <v>2900</v>
       </c>
       <c r="Q58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F59" s="3">
         <v>11900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>17300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>23700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>8100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5900</v>
-      </c>
-      <c r="N59" s="3">
-        <v>4200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>4300</v>
       </c>
       <c r="P59" s="3">
         <v>4200</v>
       </c>
       <c r="Q59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S59" s="3">
         <v>6900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>40600</v>
+      </c>
+      <c r="F60" s="3">
         <v>31700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>29200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>32600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>33100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>18400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>17300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>17800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>16000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>21800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>14000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>12400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>12800</v>
       </c>
       <c r="P60" s="3">
         <v>12400</v>
       </c>
       <c r="Q60" s="3">
+        <v>12800</v>
+      </c>
+      <c r="R60" s="3">
+        <v>12400</v>
+      </c>
+      <c r="S60" s="3">
         <v>17400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>11200</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>11100</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -3097,87 +3383,99 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
       </c>
       <c r="L61" s="3">
+        <v>200</v>
+      </c>
+      <c r="M61" s="3">
+        <v>200</v>
+      </c>
+      <c r="N61" s="3">
         <v>1400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
-      </c>
-      <c r="N61" s="3">
-        <v>400</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1200</v>
       </c>
       <c r="P61" s="3">
         <v>400</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E62" s="3">
         <v>7200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G62" s="3">
         <v>5700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>6200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1100</v>
       </c>
       <c r="P62" s="3">
         <v>1100</v>
       </c>
       <c r="Q62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S62" s="3">
         <v>1600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3226,8 +3524,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3276,8 +3580,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3326,58 +3636,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39000</v>
+        <v>54000</v>
       </c>
       <c r="E66" s="3">
-        <v>35100</v>
+        <v>58900</v>
       </c>
       <c r="F66" s="3">
         <v>39000</v>
       </c>
       <c r="G66" s="3">
+        <v>35100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>39000</v>
+      </c>
+      <c r="I66" s="3">
         <v>39200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>21500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>20800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>20300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>27500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>17100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>13800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>15100</v>
       </c>
       <c r="P66" s="3">
         <v>13800</v>
       </c>
       <c r="Q66" s="3">
+        <v>15100</v>
+      </c>
+      <c r="R66" s="3">
+        <v>13800</v>
+      </c>
+      <c r="S66" s="3">
         <v>19100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3396,8 +3718,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3446,8 +3770,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3496,8 +3826,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3541,13 +3877,19 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>14100</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3596,58 +3938,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-21900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-22300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-24100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-25000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-24300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-24900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-25000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-26400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-33300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-34200</v>
       </c>
       <c r="P72" s="3">
         <v>-33300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="S72" s="3">
         <v>-35600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3696,8 +4050,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3746,8 +4106,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3796,58 +4162,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F76" s="3">
         <v>16600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>16000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>14700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>13900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>14300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>14100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>13400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>900</v>
       </c>
       <c r="P76" s="3">
         <v>1700</v>
       </c>
       <c r="Q76" s="3">
+        <v>900</v>
+      </c>
+      <c r="R76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S76" s="3">
         <v>-18500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3896,113 +4274,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>900</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>200</v>
       </c>
       <c r="N81" s="3">
         <v>600</v>
       </c>
       <c r="O81" s="3">
+        <v>200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4021,8 +4417,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4036,43 +4434,49 @@
         <v>700</v>
       </c>
       <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
         <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
+        <v>400</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3">
         <v>-400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4121,8 +4525,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4171,8 +4581,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4221,8 +4637,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4271,8 +4693,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4321,58 +4749,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>11700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-1100</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P89" s="3" t="s">
+      <c r="P89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4391,28 +4831,30 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -4421,28 +4863,34 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4491,8 +4939,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4541,58 +4995,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-13200</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4900</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-600</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="P94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4611,8 +5077,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4661,8 +5129,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4711,8 +5185,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4761,8 +5241,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4811,26 +5297,32 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-4100</v>
       </c>
       <c r="E100" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4838,31 +5330,37 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3">
-        <v>1900</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P100" s="3" t="s">
+      <c r="P100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4906,59 +5404,71 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6800</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N102" s="3">
-        <v>200</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="P102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>DPSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,253 +665,266 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42369</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E8" s="3">
         <v>30900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>27500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E9" s="3">
         <v>23200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E10" s="3">
         <v>7700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>3000</v>
       </c>
       <c r="Q10" s="3">
         <v>3000</v>
       </c>
       <c r="R10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S10" s="3">
         <v>1800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -932,8 +945,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -988,8 +1002,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1044,8 +1061,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,8 +1075,8 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1077,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1097,11 +1117,14 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1150,14 +1173,17 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1175,120 +1201,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E17" s="3">
         <v>29600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>800</v>
       </c>
       <c r="Q18" s="3">
         <v>800</v>
       </c>
       <c r="R18" s="3">
+        <v>800</v>
+      </c>
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1309,13 +1342,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1348,11 +1382,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1363,66 +1397,72 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
+      <c r="S21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1430,7 +1470,7 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1457,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1466,75 +1506,81 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1548,49 +1594,52 @@
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1645,120 +1694,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1813,8 +1871,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1839,8 +1900,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1860,17 +1921,20 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>800</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1925,8 +1989,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1981,13 +2048,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2020,11 +2090,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2035,66 +2105,72 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2149,125 +2225,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42369</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2288,8 +2373,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2310,64 +2396,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
         <v>7200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2600</v>
       </c>
       <c r="K41" s="3">
         <v>2600</v>
       </c>
       <c r="L41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2422,232 +2512,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E43" s="3">
         <v>16600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>18700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>900</v>
       </c>
       <c r="O44" s="3">
         <v>900</v>
       </c>
       <c r="P44" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q44" s="3">
         <v>400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2000</v>
-      </c>
-      <c r="S45" s="3">
-        <v>2300</v>
       </c>
       <c r="T45" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E46" s="3">
         <v>29800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>53500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>32300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2702,31 +2807,34 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E48" s="3">
         <v>6700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4500</v>
       </c>
       <c r="G48" s="3">
         <v>4500</v>
       </c>
       <c r="H48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I48" s="3">
         <v>4600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1200</v>
       </c>
       <c r="K48" s="3">
         <v>1200</v>
@@ -2735,72 +2843,75 @@
         <v>1200</v>
       </c>
       <c r="M48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N48" s="3">
         <v>1300</v>
       </c>
       <c r="O48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P48" s="3">
         <v>700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>100</v>
-      </c>
-      <c r="S48" s="3">
-        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E49" s="3">
         <v>33400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8900</v>
-      </c>
-      <c r="P49" s="3">
-        <v>5300</v>
       </c>
       <c r="Q49" s="3">
         <v>5300</v>
@@ -2814,8 +2925,11 @@
       <c r="T49" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2870,8 +2984,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2926,49 +3043,52 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3500</v>
       </c>
       <c r="K52" s="3">
         <v>3500</v>
       </c>
       <c r="L52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M52" s="3">
         <v>3700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>800</v>
       </c>
       <c r="Q52" s="3">
         <v>800</v>
@@ -2977,13 +3097,16 @@
         <v>800</v>
       </c>
       <c r="S52" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T52" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3038,64 +3161,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>72300</v>
+      </c>
+      <c r="E54" s="3">
         <v>72700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>76500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>55600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>51100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>53700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>53100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3116,8 +3245,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3138,64 +3268,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E57" s="3">
         <v>12600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>7000</v>
       </c>
       <c r="T57" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3203,11 +3337,11 @@
         <v>6500</v>
       </c>
       <c r="E58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -3230,151 +3364,160 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>1200</v>
       </c>
       <c r="P58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E59" s="3">
         <v>14500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E60" s="3">
         <v>33700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E61" s="3">
         <v>11200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -3389,7 +3532,7 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
@@ -3398,69 +3541,72 @@
         <v>200</v>
       </c>
       <c r="N61" s="3">
+        <v>200</v>
+      </c>
+      <c r="O61" s="3">
         <v>1400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E62" s="3">
         <v>9200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>7200</v>
       </c>
       <c r="F62" s="3">
         <v>7200</v>
       </c>
       <c r="G62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H62" s="3">
         <v>5700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2400</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1100</v>
       </c>
       <c r="Q62" s="3">
         <v>1100</v>
@@ -3469,13 +3615,16 @@
         <v>1100</v>
       </c>
       <c r="S62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T62" s="3">
         <v>1600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3530,8 +3679,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3586,8 +3738,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3642,64 +3797,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E66" s="3">
         <v>54000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>58900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>35100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3720,8 +3881,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3776,8 +3938,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3832,8 +3997,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3883,13 +4051,16 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>14100</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3944,64 +4115,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-24100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-25000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-26400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-27000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-33300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-34200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-33300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-35600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4056,8 +4233,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4112,8 +4292,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4168,64 +4351,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E76" s="3">
         <v>18700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-18500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4280,125 +4469,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42369</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4419,8 +4617,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4428,55 +4627,58 @@
         <v>700</v>
       </c>
       <c r="E83" s="3">
+        <v>700</v>
+      </c>
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
       </c>
       <c r="N83" s="3">
+        <v>400</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3" t="s">
+      <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T83" s="3">
         <v>-400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4531,8 +4733,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4587,8 +4792,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4643,8 +4851,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4699,8 +4910,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4755,64 +4969,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>6500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3" t="s">
+      <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4833,16 +5053,17 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -4851,13 +5072,13 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -4869,28 +5090,31 @@
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4945,8 +5169,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5001,16 +5228,19 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13200</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
@@ -5019,13 +5249,13 @@
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -5034,31 +5264,34 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3100</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5079,8 +5312,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5135,8 +5369,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5191,8 +5428,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5247,8 +5487,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5303,29 +5546,32 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5336,31 +5582,34 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3" t="s">
+      <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5410,65 +5659,71 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6800</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
     </row>
